--- a/Chassis.xlsx
+++ b/Chassis.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teddy\Desktop\VexCAD\15InVEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3F931D-3E9A-4415-9A6B-983F87B143EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81133B28-940E-4C31-9CF8-6822F4B976CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>Item</t>
   </si>
@@ -71,6 +58,15 @@
     <t>3</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -80,6 +76,15 @@
     <t>5</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -137,6 +142,15 @@
     <t>Screw 8-32 Steel 2.500</t>
   </si>
   <si>
+    <t>Ramp Support</t>
+  </si>
+  <si>
+    <t>PolyRamp1</t>
+  </si>
+  <si>
+    <t>Part50-02</t>
+  </si>
+  <si>
     <t>Nylon Spacer .5 OD-.125</t>
   </si>
   <si>
@@ -146,6 +160,15 @@
     <t>Nut 8-32 THIN Nylock</t>
   </si>
   <si>
+    <t>HardStop</t>
+  </si>
+  <si>
+    <t>Funnel_MIR</t>
+  </si>
+  <si>
+    <t>Funnel</t>
+  </si>
+  <si>
     <t>DriveGear2</t>
   </si>
   <si>
@@ -207,15 +230,6 @@
   </si>
   <si>
     <t>ANY</t>
-  </si>
-  <si>
-    <t>3.5" LS Shaft</t>
-  </si>
-  <si>
-    <t>Square Insert</t>
-  </si>
-  <si>
-    <t>Circle Insert</t>
   </si>
 </sst>
 </file>
@@ -259,10 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,13 +1064,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1379220</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1379220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1096,13 +1109,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1379220</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1379220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1141,13 +1154,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1379220</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1379220</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1165,6 +1178,231 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1379220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1379220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1379220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1379220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1379220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1502,17 +1740,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1549,19 +1791,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1569,16 +1811,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
         <v>18</v>
@@ -1589,19 +1831,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,16 +1851,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1626,16 +1868,16 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1643,19 +1885,16 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1663,16 +1902,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F8" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,16 +1919,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1697,16 +1936,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1714,16 +1956,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1731,16 +1973,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1748,16 +1990,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1765,16 +2007,16 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1782,16 +2024,16 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1799,16 +2041,16 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,13 +2058,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1833,16 +2075,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1850,16 +2092,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1867,79 +2109,175 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1">
-        <v>96</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1">
-        <v>9</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="1">
         <v>8</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>57</v>
+    </row>
+    <row r="26" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="1">
+        <v>158</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
